--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H2">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I2">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J2">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N2">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q2">
-        <v>73.93902766625033</v>
+        <v>30.89795066864567</v>
       </c>
       <c r="R2">
-        <v>665.451248996253</v>
+        <v>278.081556017811</v>
       </c>
       <c r="S2">
-        <v>0.2778228154119721</v>
+        <v>0.1652980755763233</v>
       </c>
       <c r="T2">
-        <v>0.2778228154119721</v>
+        <v>0.1652980755763232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H3">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I3">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J3">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q3">
-        <v>66.04314317739166</v>
+        <v>11.84483568014166</v>
       </c>
       <c r="R3">
-        <v>594.3882885965249</v>
+        <v>106.603521121275</v>
       </c>
       <c r="S3">
-        <v>0.2481543584670921</v>
+        <v>0.06336758591022142</v>
       </c>
       <c r="T3">
-        <v>0.2481543584670921</v>
+        <v>0.0633675859102214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H4">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I4">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J4">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q4">
-        <v>37.69542224650067</v>
+        <v>6.760672810560667</v>
       </c>
       <c r="R4">
-        <v>339.258800218506</v>
+        <v>60.84605529504601</v>
       </c>
       <c r="S4">
-        <v>0.1416389783205949</v>
+        <v>0.03616829534008169</v>
       </c>
       <c r="T4">
-        <v>0.141638978320595</v>
+        <v>0.03616829534008168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I5">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J5">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N5">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q5">
-        <v>12.42199890657378</v>
+        <v>28.94317171026089</v>
       </c>
       <c r="R5">
-        <v>111.797990159164</v>
+        <v>260.488545392348</v>
       </c>
       <c r="S5">
-        <v>0.04667514326597016</v>
+        <v>0.1548403852439354</v>
       </c>
       <c r="T5">
-        <v>0.04667514326597017</v>
+        <v>0.1548403852439354</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I6">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J6">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q6">
         <v>11.09546444185555</v>
@@ -818,10 +818,10 @@
         <v>99.85917997670001</v>
       </c>
       <c r="S6">
-        <v>0.04169074529156656</v>
+        <v>0.05935859434604498</v>
       </c>
       <c r="T6">
-        <v>0.04169074529156656</v>
+        <v>0.05935859434604497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I7">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J7">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q7">
         <v>6.332954445147556</v>
@@ -880,10 +880,10 @@
         <v>56.99659000632801</v>
       </c>
       <c r="S7">
-        <v>0.02379581243302931</v>
+        <v>0.03388008459595674</v>
       </c>
       <c r="T7">
-        <v>0.02379581243302931</v>
+        <v>0.03388008459595673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H8">
         <v>1.382894</v>
       </c>
       <c r="I8">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J8">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N8">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q8">
-        <v>24.38978049293711</v>
+        <v>56.82802019963755</v>
       </c>
       <c r="R8">
-        <v>219.508024436434</v>
+        <v>511.4521817967379</v>
       </c>
       <c r="S8">
-        <v>0.09164358387851407</v>
+        <v>0.304018945416494</v>
       </c>
       <c r="T8">
-        <v>0.09164358387851408</v>
+        <v>0.304018945416494</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H9">
         <v>1.382894</v>
       </c>
       <c r="I9">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J9">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q9">
         <v>21.78521703627222</v>
       </c>
       <c r="R9">
-        <v>196.06695332645</v>
+        <v>196.0669533264499</v>
       </c>
       <c r="S9">
-        <v>0.08185704522241986</v>
+        <v>0.1165467085738659</v>
       </c>
       <c r="T9">
-        <v>0.08185704522241988</v>
+        <v>0.1165467085738659</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H10">
         <v>1.382894</v>
       </c>
       <c r="I10">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J10">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q10">
         <v>12.43434087787422</v>
@@ -1066,10 +1066,10 @@
         <v>111.909067900868</v>
       </c>
       <c r="S10">
-        <v>0.04672151770884086</v>
+        <v>0.06652132499707661</v>
       </c>
       <c r="T10">
-        <v>0.04672151770884087</v>
+        <v>0.06652132499707659</v>
       </c>
     </row>
   </sheetData>
